--- a/hallo_root/评估表.xlsx
+++ b/hallo_root/评估表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\VoiceIdentification\talkingface-kit\hallo_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C5CDE-10DE-4041-9EA0-B4847C7BC404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50501F99-2712-45C7-BCC5-8FCE0EC8188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,16 +242,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -260,7 +254,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +546,7 @@
   <dimension ref="E3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -593,216 +593,220 @@
       </c>
     </row>
     <row r="4" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E5" s="2"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>7.8075320933004404</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E7" s="2"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>7.7839722634118003</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E9" s="2"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="G10" s="5">
+        <v>6.7521819978929702</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="G11" s="5">
+        <v>6.9076423324316201</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E13" s="2"/>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E15" s="2"/>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E17" s="5"/>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E19" s="5"/>
-      <c r="F19" s="6" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="5:12" ht="32.450000000000003" customHeight="1"/>
     <row r="21" spans="5:12" ht="32.450000000000003" customHeight="1"/>

--- a/hallo_root/评估表.xlsx
+++ b/hallo_root/评估表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\VoiceIdentification\talkingface-kit\hallo_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50501F99-2712-45C7-BCC5-8FCE0EC8188E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70990F7A-7657-4835-8C5D-78A6AAA46DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="E3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -655,7 +655,9 @@
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>7.8230436815622397</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -667,7 +669,9 @@
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>8.2421282237834195</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>

--- a/hallo_root/评估表.xlsx
+++ b/hallo_root/评估表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\VoiceIdentification\talkingface-kit\hallo_root\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\stf-zero\talkingface-kit\hallo_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70990F7A-7657-4835-8C5D-78A6AAA46DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FAA598-A8B5-48CE-B01B-45FEF09F441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NIQE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PSNR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>Shaheen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIQE ↓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +546,7 @@
   <dimension ref="E3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -568,33 +568,33 @@
   <sheetData>
     <row r="3" spans="5:12" ht="27.6" customHeight="1">
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="5:12" ht="27.6" customHeight="1">
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -609,7 +609,7 @@
     <row r="5" spans="5:12" ht="27.6" customHeight="1">
       <c r="E5" s="8"/>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -620,14 +620,12 @@
     </row>
     <row r="6" spans="5:12" ht="27.6" customHeight="1">
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
-        <v>7.8075320933004404</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -637,11 +635,9 @@
     <row r="7" spans="5:12" ht="27.6" customHeight="1">
       <c r="E7" s="8"/>
       <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5">
-        <v>7.7839722634118003</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -650,14 +646,12 @@
     </row>
     <row r="8" spans="5:12" ht="27.6" customHeight="1">
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
-        <v>7.8230436815622397</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -667,11 +661,9 @@
     <row r="9" spans="5:12" ht="27.6" customHeight="1">
       <c r="E9" s="8"/>
       <c r="F9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5">
-        <v>8.2421282237834195</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -680,14 +672,12 @@
     </row>
     <row r="10" spans="5:12" ht="27.6" customHeight="1">
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
-        <v>6.7521819978929702</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -697,11 +687,9 @@
     <row r="11" spans="5:12" ht="27.6" customHeight="1">
       <c r="E11" s="8"/>
       <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5">
-        <v>6.9076423324316201</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -710,7 +698,7 @@
     </row>
     <row r="12" spans="5:12" ht="27.6" customHeight="1">
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>1</v>
@@ -725,7 +713,7 @@
     <row r="13" spans="5:12" ht="27.6" customHeight="1">
       <c r="E13" s="8"/>
       <c r="F13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -736,12 +724,14 @@
     </row>
     <row r="14" spans="5:12" ht="27.6" customHeight="1">
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="5">
+        <v>7.174175601</v>
+      </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -751,9 +741,11 @@
     <row r="15" spans="5:12" ht="27.6" customHeight="1">
       <c r="E15" s="8"/>
       <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7.1404353409999999</v>
+      </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -762,12 +754,14 @@
     </row>
     <row r="16" spans="5:12" ht="27.6" customHeight="1">
       <c r="E16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="5">
+        <v>7.0414370641145299</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -777,9 +771,11 @@
     <row r="17" spans="5:12" ht="27.6" customHeight="1">
       <c r="E17" s="6"/>
       <c r="F17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
+        <v>6.5724989945743602</v>
+      </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -788,7 +784,7 @@
     </row>
     <row r="18" spans="5:12" ht="27.6" customHeight="1">
       <c r="E18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>1</v>
@@ -803,7 +799,7 @@
     <row r="19" spans="5:12" ht="27.6" customHeight="1">
       <c r="E19" s="6"/>
       <c r="F19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>

--- a/hallo_root/评估表.xlsx
+++ b/hallo_root/评估表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\stf-zero\talkingface-kit\hallo_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FAA598-A8B5-48CE-B01B-45FEF09F441B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23A2332-4521-473C-998D-FB205959552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="E3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -677,7 +677,9 @@
       <c r="F10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>6.7521819978929702</v>
+      </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -689,7 +691,9 @@
       <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>5.9058746851213</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>

--- a/hallo_root/评估表.xlsx
+++ b/hallo_root/评估表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\stf-zero\talkingface-kit\hallo_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23A2332-4521-473C-998D-FB205959552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D80C9DA-39A9-4110-9299-99A0CA40D9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
   <dimension ref="E3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -599,7 +599,9 @@
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>8.2397092020152396</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -611,7 +613,9 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <v>7.4680518150550501</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>

--- a/hallo_root/评估表.xlsx
+++ b/hallo_root/评估表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\stf-zero\talkingface-kit\hallo_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D80C9DA-39A9-4110-9299-99A0CA40D9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2D79DD-5CFC-4319-8A2E-3ECFC8E74E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,6 +261,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +552,7 @@
   <dimension ref="E3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -602,9 +608,13 @@
       <c r="G4" s="3">
         <v>8.2397092020152396</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="10">
+        <v>19.960957005664898</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="10">
+        <v>0.80119476507379705</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
@@ -616,9 +626,9 @@
       <c r="G5" s="5">
         <v>7.4680518150550501</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
@@ -629,10 +639,16 @@
       <c r="F6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>7.8075320933004404</v>
+      </c>
+      <c r="H6" s="10">
+        <v>18.056859010724398</v>
+      </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="10">
+        <v>0.71789492509851605</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
@@ -641,10 +657,12 @@
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5">
+        <v>6.84823588165077</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="9"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
@@ -655,10 +673,16 @@
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5">
+        <v>7.8230436815622397</v>
+      </c>
+      <c r="H8" s="10">
+        <v>19.191684398082099</v>
+      </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="10">
+        <v>0.78793333697729095</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
@@ -667,10 +691,12 @@
       <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5">
+        <v>7.8392251121555203</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="9"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
@@ -684,9 +710,13 @@
       <c r="G10" s="5">
         <v>6.7521819978929702</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="10">
+        <v>19.558288739835401</v>
+      </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="10">
+        <v>0.78774282179958299</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
@@ -698,9 +728,9 @@
       <c r="G11" s="5">
         <v>5.9058746851213</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
@@ -712,9 +742,9 @@
         <v>1</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
@@ -724,9 +754,9 @@
         <v>8</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="9"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
@@ -740,9 +770,13 @@
       <c r="G14" s="5">
         <v>7.174175601</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="10">
+        <v>20.841020201952801</v>
+      </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="10">
+        <v>0.81636093111364305</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
@@ -754,9 +788,9 @@
       <c r="G15" s="5">
         <v>7.1404353409999999</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
@@ -770,9 +804,13 @@
       <c r="G16" s="5">
         <v>7.0414370641145299</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="H16" s="10">
+        <v>19.1520866147759</v>
+      </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="10">
+        <v>0.76657914508707803</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
@@ -784,9 +822,9 @@
       <c r="G17" s="5">
         <v>6.5724989945743602</v>
       </c>
-      <c r="H17" s="5"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
@@ -798,9 +836,9 @@
         <v>1</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
@@ -810,9 +848,9 @@
         <v>8</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
@@ -821,7 +859,23 @@
     <row r="22" spans="5:12" ht="32.450000000000003" customHeight="1"/>
     <row r="23" spans="5:12" ht="32.450000000000003" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="24">
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="E4:E5"/>

--- a/hallo_root/评估表.xlsx
+++ b/hallo_root/评估表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\stf-zero\talkingface-kit\hallo_root\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C90D9-D576-43D5-BEAB-6A66817F25AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F79F3A-FD11-43A5-8CD6-B6A0874A99BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,21 +42,6 @@
     <t>NIQE ↓</t>
   </si>
   <si>
-    <t>PSNR</t>
-  </si>
-  <si>
-    <t>FID</t>
-  </si>
-  <si>
-    <t>SSIM</t>
-  </si>
-  <si>
-    <t>LSE-C</t>
-  </si>
-  <si>
-    <t>LSE-D</t>
-  </si>
-  <si>
     <t>Obama</t>
   </si>
   <si>
@@ -85,6 +70,26 @@
   </si>
   <si>
     <t>Shaheen</t>
+  </si>
+  <si>
+    <t>PSNR ↑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID ↓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSE-C ↓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSE-D ↓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSIM ↑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -239,6 +244,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -246,12 +257,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -532,7 +537,7 @@
   <dimension ref="E3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -563,36 +568,38 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="27.6" customHeight="1">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G4" s="3">
         <v>8.2397092020152396</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>19.960957005664898</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="9">
+      <c r="I4" s="6">
+        <v>12.068017579999999</v>
+      </c>
+      <c r="J4" s="6">
         <v>0.80119476507379705</v>
       </c>
       <c r="K4" s="3">
@@ -603,16 +610,16 @@
       </c>
     </row>
     <row r="5" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E5" s="7"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5">
         <v>7.4680518150550501</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="5">
         <v>7.5461489999999998</v>
       </c>
@@ -621,20 +628,22 @@
       </c>
     </row>
     <row r="6" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E6" s="6" t="s">
-        <v>11</v>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="5">
         <v>7.8075320933004404</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>18.056859010724398</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="9">
+      <c r="I6" s="6">
+        <v>29.3476654</v>
+      </c>
+      <c r="J6" s="6">
         <v>0.71789492509851605</v>
       </c>
       <c r="K6" s="5">
@@ -645,16 +654,16 @@
       </c>
     </row>
     <row r="7" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E7" s="7"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5">
         <v>6.84823588165077</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="5">
         <v>7.7672230000000004</v>
       </c>
@@ -663,20 +672,22 @@
       </c>
     </row>
     <row r="8" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E8" s="6" t="s">
-        <v>12</v>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G8" s="5">
         <v>7.8230436815622397</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>19.191684398082099</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="9">
+      <c r="I8" s="6">
+        <v>24.45190586</v>
+      </c>
+      <c r="J8" s="6">
         <v>0.78793333697729095</v>
       </c>
       <c r="K8" s="5">
@@ -687,16 +698,16 @@
       </c>
     </row>
     <row r="9" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E9" s="7"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5">
         <v>7.8392251121555203</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="5">
         <v>7.2209349999999999</v>
       </c>
@@ -705,20 +716,22 @@
       </c>
     </row>
     <row r="10" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E10" s="6" t="s">
-        <v>13</v>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G10" s="5">
         <v>6.7521819978929702</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>19.558288739835401</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="9">
+      <c r="I10" s="6">
+        <v>13.243364359999999</v>
+      </c>
+      <c r="J10" s="6">
         <v>0.78774282179958299</v>
       </c>
       <c r="K10" s="5">
@@ -729,16 +742,16 @@
       </c>
     </row>
     <row r="11" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E11" s="7"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G11" s="5">
         <v>5.9058746851213</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="5">
         <v>5.5167685000000004</v>
       </c>
@@ -747,20 +760,22 @@
       </c>
     </row>
     <row r="12" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E12" s="6" t="s">
-        <v>14</v>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G12" s="5">
         <v>5.24345489083289</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>19.2975363646778</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="9">
+      <c r="I12" s="6">
+        <v>33.405008670000001</v>
+      </c>
+      <c r="J12" s="6">
         <v>0.67556731030516004</v>
       </c>
       <c r="K12" s="5">
@@ -771,16 +786,16 @@
       </c>
     </row>
     <row r="13" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E13" s="7"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5">
         <v>5.3912710806945201</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="10"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="5">
         <v>8.4117239999999995</v>
       </c>
@@ -789,20 +804,22 @@
       </c>
     </row>
     <row r="14" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E14" s="6" t="s">
-        <v>15</v>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G14" s="5">
         <v>7.174175601</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>20.841020201952801</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="9">
+      <c r="I14" s="6">
+        <v>19.948366180000001</v>
+      </c>
+      <c r="J14" s="6">
         <v>0.81636093111364305</v>
       </c>
       <c r="K14" s="5">
@@ -813,16 +830,16 @@
       </c>
     </row>
     <row r="15" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E15" s="7"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G15" s="5">
         <v>7.1404353409999999</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="5">
         <v>4.8885927000000002</v>
       </c>
@@ -831,20 +848,22 @@
       </c>
     </row>
     <row r="16" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E16" s="8" t="s">
-        <v>16</v>
+      <c r="E16" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G16" s="5">
         <v>7.0414370641145299</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>19.1520866147759</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="9">
+      <c r="I16" s="6">
+        <v>26.32430025</v>
+      </c>
+      <c r="J16" s="6">
         <v>0.76657914508707803</v>
       </c>
       <c r="K16" s="5">
@@ -855,16 +874,16 @@
       </c>
     </row>
     <row r="17" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E17" s="8"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G17" s="5">
         <v>6.5724989945743602</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="5">
         <v>8.3137899999999991</v>
       </c>
@@ -873,20 +892,22 @@
       </c>
     </row>
     <row r="18" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E18" s="8" t="s">
-        <v>17</v>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G18" s="5">
         <v>6.8306324095136501</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>20.5660392621737</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="9">
+      <c r="I18" s="6">
+        <v>52.683049590000003</v>
+      </c>
+      <c r="J18" s="6">
         <v>0.75961350432680497</v>
       </c>
       <c r="K18" s="5">
@@ -897,16 +918,16 @@
       </c>
     </row>
     <row r="19" spans="5:12" ht="27.6" customHeight="1">
-      <c r="E19" s="8"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5">
         <v>6.3681143522487202</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="10"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="5">
         <v>8.8552859999999995</v>
       </c>
@@ -919,15 +940,15 @@
     <row r="22" spans="5:12" ht="32.450000000000003" customHeight="1"/>
     <row r="23" spans="5:12" ht="32.450000000000003" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
+  <mergeCells count="32">
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
@@ -944,6 +965,14 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
